--- a/br_serie_a_classificacao_arquivo_de_saida.xlsx
+++ b/br_serie_a_classificacao_arquivo_de_saida.xlsx
@@ -487,13 +487,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -502,75 +502,75 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="n">
         <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>15</v>
       </c>
       <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
         <v>5</v>
       </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
         <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H4" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -645,7 +645,7 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
@@ -654,16 +654,16 @@
         <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -700,63 +700,63 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>-5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="11">
@@ -800,7 +800,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
@@ -809,16 +809,16 @@
         <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
         <v>31</v>
       </c>
       <c r="H12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="13">
@@ -917,42 +917,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Criciúma</t>
+          <t>EC Vitória</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Criciúma</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
         <v>25</v>
@@ -961,81 +961,81 @@
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H17" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I17" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EC Vitória</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
+        <v>27</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11</v>
+      </c>
+      <c r="G18" t="n">
         <v>26</v>
       </c>
-      <c r="D18" t="n">
-        <v>7</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>15</v>
-      </c>
-      <c r="G18" t="n">
-        <v>28</v>
-      </c>
       <c r="H18" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I18" t="n">
-        <v>-11</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
         <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H19" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I19" t="n">
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="20">
@@ -1048,7 +1048,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
         <v>5</v>
@@ -1057,16 +1057,16 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="n">
         <v>23</v>
       </c>
       <c r="H20" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I20" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="21">
@@ -1079,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="C21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>4</v>
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
         <v>21</v>
       </c>
       <c r="H21" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I21" t="n">
-        <v>-21</v>
+        <v>-24</v>
       </c>
     </row>
   </sheetData>

--- a/br_serie_a_classificacao_arquivo_de_saida.xlsx
+++ b/br_serie_a_classificacao_arquivo_de_saida.xlsx
@@ -514,63 +514,63 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="n">
         <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
         <v>15</v>
       </c>
       <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
         <v>5</v>
       </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
       <c r="G4" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +583,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
         <v>13</v>
@@ -592,16 +592,16 @@
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
         <v>44</v>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>13</v>
@@ -623,16 +623,16 @@
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>9</v>
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -719,75 +719,75 @@
         <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Atlético-MG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Atlético-MG</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" t="n">
         <v>36</v>
       </c>
       <c r="I11" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +824,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -834,22 +834,22 @@
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H13" t="n">
         <v>32</v>
       </c>
       <c r="I13" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="14">
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
         <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
@@ -886,94 +886,94 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
         <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EC Vitória</t>
+          <t>Criciúma</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
         <v>8</v>
       </c>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H16" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" t="n">
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Criciúma</t>
+          <t>EC Vitória</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H17" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="18">
@@ -1045,16 +1045,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>13</v>

--- a/br_serie_a_classificacao_arquivo_de_saida.xlsx
+++ b/br_serie_a_classificacao_arquivo_de_saida.xlsx
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
@@ -518,13 +518,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -564,13 +564,13 @@
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
         <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -595,13 +595,13 @@
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
         <v>32</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -626,13 +626,13 @@
         <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -657,23 +657,23 @@
         <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
         <v>31</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n">
         <v>27</v>
@@ -682,267 +682,267 @@
         <v>12</v>
       </c>
       <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
         <v>6</v>
       </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
       <c r="G8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Atlético-MG</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H10" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I10" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Atlético-MG</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
         <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I11" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
         <v>9</v>
       </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H13" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I13" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I14" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Criciúma</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H15" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I15" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Criciúma</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
         <v>26</v>
       </c>
       <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
         <v>7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I16" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="17">
@@ -955,7 +955,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>8</v>
@@ -964,16 +964,16 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I17" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="18">
@@ -986,7 +986,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>6</v>
@@ -995,16 +995,16 @@
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H18" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I18" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="19">
@@ -1017,7 +1017,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
         <v>7</v>
@@ -1026,16 +1026,16 @@
         <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
         <v>21</v>
       </c>
       <c r="H19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I19" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="20">
@@ -1048,7 +1048,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>5</v>
@@ -1057,16 +1057,16 @@
         <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
         <v>23</v>
       </c>
       <c r="H20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I20" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="21">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
         <v>6</v>
@@ -1091,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" t="n">
         <v>45</v>
       </c>
       <c r="I21" t="n">
-        <v>-24</v>
+        <v>-23</v>
       </c>
     </row>
   </sheetData>

--- a/br_serie_a_classificacao_arquivo_de_saida.xlsx
+++ b/br_serie_a_classificacao_arquivo_de_saida.xlsx
@@ -487,13 +487,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -502,13 +502,13 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="n">
         <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -518,16 +518,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
@@ -552,7 +552,7 @@
         <v>55</v>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>16</v>
@@ -561,16 +561,16 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -595,13 +595,13 @@
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
         <v>32</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
         <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
@@ -623,16 +623,16 @@
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>13</v>
@@ -654,16 +654,16 @@
         <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
         <v>39</v>
       </c>
       <c r="H7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -707,7 +707,7 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>12</v>
@@ -716,106 +716,106 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
         <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Atlético-MG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H10" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I10" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Atlético-MG</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H11" t="n">
         <v>38</v>
       </c>
       <c r="I11" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>35</v>
+      </c>
+      <c r="C12" t="n">
+        <v>29</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14</v>
+      </c>
+      <c r="G12" t="n">
         <v>33</v>
       </c>
-      <c r="C12" t="n">
-        <v>28</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11</v>
-      </c>
-      <c r="G12" t="n">
-        <v>34</v>
-      </c>
       <c r="H12" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" t="n">
         <v>-4</v>
@@ -824,29 +824,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Criciúma</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
         <v>8</v>
       </c>
-      <c r="E13" t="n">
-        <v>9</v>
-      </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H13" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I13" t="n">
         <v>-6</v>
@@ -855,63 +855,63 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I14" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Criciúma</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
         <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I15" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="16">
@@ -924,7 +924,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
         <v>8</v>
@@ -933,26 +933,26 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
         <v>27</v>
       </c>
       <c r="H16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I16" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EC Vitória</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>28</v>
@@ -961,78 +961,78 @@
         <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
+        <v>22</v>
+      </c>
+      <c r="H17" t="n">
         <v>30</v>
       </c>
-      <c r="H17" t="n">
-        <v>42</v>
-      </c>
       <c r="I17" t="n">
-        <v>-12</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>EC Vitória</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H18" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I18" t="n">
-        <v>-9</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>28</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" t="n">
         <v>27</v>
       </c>
-      <c r="C19" t="n">
-        <v>27</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14</v>
-      </c>
-      <c r="G19" t="n">
-        <v>21</v>
-      </c>
       <c r="H19" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I19" t="n">
         <v>-9</v>
@@ -1045,13 +1045,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1060,13 +1060,13 @@
         <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H20" t="n">
         <v>39</v>
       </c>
       <c r="I20" t="n">
-        <v>-16</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="21">
@@ -1079,7 +1079,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
         <v>22</v>
       </c>
       <c r="H21" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I21" t="n">
-        <v>-23</v>
+        <v>-25</v>
       </c>
     </row>
   </sheetData>
